--- a/cctv_list.xlsx
+++ b/cctv_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,19 +468,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[남해선] 죽평</t>
+          <t>[남해선] 서순천</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/138/pQahsqagIvXoxtKYMYuTVxSWQPyEx4a/DycV69i2ghScblbPnSTRLT9ttd6K1vxfdzVH2B2WDjzDDFu8a5pSZocJ9jNGE5Bx51hdStrzVl0=</t>
+          <t>http://cctvsec.ktict.co.kr/2060/F4wDV8sWkKydXwqHr93WWiVur3y+ke38Om8KzaV5rxGYp8xU4EcReQLAYzkC2E+gQrsFTkgYm2AykUucvZfnnlfv2OTxUwOSRnehOIIZn2s=</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>127.492691040039</v>
+        <v>127.4828424</v>
       </c>
       <c r="D2" t="n">
-        <v>34.9977531433105</v>
+        <v>35.00323479</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -494,19 +494,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[남해선] 지본교</t>
+          <t>[남해선] 순천</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/139/cBdS8s2tCPm2pzLqSXwG/j9oASIAAefeXwuRErHMF3c8YG6EFOSrxpK2O87aHx2JoR4snyPl9GBWfgcCf+HTVC7Alc2wqHQc+7ZYJvrR/Hg=</t>
+          <t>http://cctvsec.ktict.co.kr/2061/E56BSsj1jhjafCQdjraBNtZxaEWZ3T2KoEhFsMFN+21OGjAIcIPYiZoAo+gL+ICaFdDUg83CBWmjg/EsX55RtZz25t2z6y4mA79lD/YR5HM=</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>127.505096435546</v>
+        <v>127.5164295</v>
       </c>
       <c r="D3" t="n">
-        <v>34.9904441833496</v>
+        <v>34.98736526</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -520,19 +520,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[남해선] 구상</t>
+          <t>[남해선] 광양</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/140/JhLF6nXjk8ny10CKEuu2m/PE5HSGZyQP1sPi4L9rYstCsD45Gw2a9Fo8M0OpNkWBIvpyAEKoX+oyVd0oxOkRyrFrdr4P/lqi5eC53gnw5s8=</t>
+          <t>http://cctvsec.ktict.co.kr/2062/sViAXNp2DcX01rfp2xRJ6lTyU5nuKTptc+9hu1ZUJJcxxlfpZGTfUZTB4R79BtVSiFjtlEtNTOeAzLXZnH5hqp3mIxgcOQdqJ+xnsH6LfYo=</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>127.550102233886</v>
+        <v>127.60417</v>
       </c>
       <c r="D4" t="n">
-        <v>34.991283416748</v>
+        <v>34.9725</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -546,19 +546,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[남해선] 청룡교</t>
+          <t>[남해선] 동광양</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/141/vU35bne+GAsVbWlFn/nuYi5tjAQ2U9b65HkJbb6ONhEp8rlpqPE8UmeexuTXcbyl7cX071joOmEjLTL27YjUj8gyAoqpZOQk8TjPqyq8sCM=</t>
+          <t>http://cctvsec.ktict.co.kr/2063/GEOCqOWCvKJUrFwuBHGZtj5tosRm8txk68G6gEr3SP/y3GgsQp/JvMRNGTjMYMQ6aUjQ3tHb1SgxEsRJxPHHeHKyjkkn0be0xAxY7LGJmo0=</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>127.674949645996</v>
+        <v>127.6471</v>
       </c>
       <c r="D5" t="n">
-        <v>34.9805831909179</v>
+        <v>34.96491</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -572,19 +572,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[남해선] 원월교</t>
+          <t>[남해선] 옥곡</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/142/3LZRud0Bv0yGXiwUZVUlDGH9JW+i8mSpewYWllzoeUuwLRZODnk+9qEj+ADBw6qQ579su8YhqK/zrEAccuie0A4Uj9n8OZckSHrYnqBy83s=</t>
+          <t>http://cctvsec.ktict.co.kr/2064/RgjEd5vX0jeq/Gml1Z38xksgnvZ384uwpNZVSjs2ZZ3uvllby+TzHerfE3JaaEUSGxUyfzMzaMlZ+X+fpC2Jm5UxbczLms0BOMTeP1U4/gw=</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>127.687522888183</v>
+        <v>127.704631</v>
       </c>
       <c r="D6" t="n">
-        <v>34.990493774414</v>
+        <v>34.987096</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -598,19 +598,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[남해선] 신금</t>
+          <t>[남해선] 진월</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/143/+DOodsi3cKzIrnwdGA1dOI4xtU2OePo3C4MrMqa7cLxGYFr7aOdvmpwk1mV8NWqzwQCPYR53uS2oQNXdnC4+5wfzWbuYiOQ14Tc9drr8uUw=</t>
+          <t>http://cctvsec.ktict.co.kr/2065/uhp10bmLAMDfCLkzCvCml3v+Z78NGMgvM0Md5LZNOz37XAOqVjqfmC6S4xcNQltbJLLk7iQ8Yq3WxqzE7UkJbKSHhUolNk8sIygxxTQz5Ok=</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>127.709327697753</v>
+        <v>127.7482084</v>
       </c>
       <c r="D7" t="n">
-        <v>34.9860725402832</v>
+        <v>34.98016219</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -624,19 +624,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[남해선] 선소</t>
+          <t>[남해선] 섬진강휴게소</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/144/jt2HpLAWMB3vC68Me+CybnABjrBxNlhsO90sOu4B5axZGhrcbKRnZMgAUmLgpaU8L7eLygSCdYMguBo3uO8unPot13h2D9lPW4WSJ2TrnH8=</t>
+          <t>http://cctvsec.ktict.co.kr/2066/c+i6TOIQd4Ey/dC/qqMbcs1DA8IqtkBM5Ys8Mztw/tau8s8QE5cONIEmhKRaCDo/75FxGAjAZ+WDBnI41Kv0SInZRfV70Ga3puK9D8BG78w=</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>127.761039733886</v>
+        <v>127.77112</v>
       </c>
       <c r="D8" t="n">
-        <v>34.9798507690429</v>
+        <v>34.986133</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -650,19 +650,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[호남선] 신성</t>
+          <t>[남해선] 하동</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/200/0OxHL9J4G+qhvlI+7QupnfbSm9595SR3rHbBmM1exXuQ6D1RG8VIIhMgpf3636IWIHgSumIIwIa/IpdCeMP6ENJdJ6IawGezWXK1+KZl/gQ=</t>
+          <t>http://cctvsec.ktict.co.kr/2075/KUykelLOGUaIty2043WDnpnXjzgAkhI9KyYUVqXXVQnccqopQSHJIzMj72CeVmzcj7fI5mCZx3BBFDZJXOlcFSm7tOCLMgmcuj0vxHwfKbk=</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>127.391700744628</v>
+        <v>127.8140637</v>
       </c>
       <c r="D9" t="n">
-        <v>35.0112686157226</v>
+        <v>35.00265681</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -676,19 +676,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[남해선] 덕천</t>
+          <t>[호남선] 주암</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/322/xa6nyribSwOREaSql6KiONbcQLyxPpRmuUEl1bAVKL3NiejVoLVnraciwcgON8XnwdtgRJLiLzLs0BXvfQgaD9mYyK2dpK4KRlvY41OCf64=</t>
+          <t>http://cctvsec.ktict.co.kr/2332/PfCxzKAZGC+x5c0mUfunjxLlTaF+K5p/iSjS4Dyvz2ieFDrAJX80cIJtENWefQZIVNi4iDOQdsbZFIOpAOlXCf+l0P9TKqPSC4G/vvZPuaA=</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>127.8263</v>
+        <v>127.2706522</v>
       </c>
       <c r="D10" t="n">
-        <v>35.00498</v>
+        <v>35.06700702</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -702,19 +702,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[남해선] 명교</t>
+          <t>[호남선] 승주</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/323/KBJVuZyvUwf2Chr1SH+4Q+iVVifWqO0dQBfv/cZKhRsAMjsN0433jLpQcGfjlOfdId7g/mk1cdkQvT9dChEavaVUkY//6zS2dGI1/BVe0tk=</t>
+          <t>http://cctvsec.ktict.co.kr/2333/2KWQoIDwVtcNHyeIU9TVdN1Ns1kEVSjQMbKK/W8FCRpDZuhP/c+nvt3ty8alCQ5gqjPAmSFOVjm+Rs1yjG89gsMYfMx3oqfvm86ZLtfIIJg=</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>127.85486</v>
+        <v>127.3748123</v>
       </c>
       <c r="D11" t="n">
-        <v>35.022478</v>
+        <v>35.01461894</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -728,19 +728,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[남해선] 백련</t>
+          <t>[남해선] 안심교</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/324/LF8lUx0kWigwQZlaLGBXhNfPt37fvV88jCMvNn2re3LDXtctiCP5NOvk2PcnGvUC7G+3fHs0caYZ2N3waOzQIKzXCZl539L9tRthTfydCxU=</t>
+          <t>http://cctvsec.ktict.co.kr/2489/fyzBtsrLh4HOh1IlO5l5dKh/MMPzDx9F3hherhr0TNgdzZX/bSrEepiHuUsNJWUHRSRao9ZEAk7koyMl+XU42DP0krB1lfHvaYmJ8rM7upc=</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>127.88109</v>
+        <v>127.865987</v>
       </c>
       <c r="D12" t="n">
-        <v>35.03832</v>
+        <v>35.026993</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -754,19 +754,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[남해선] 서순천</t>
+          <t>[남해선] 억만교</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2060/F4wDV8sWkKydXwqHr93WWiVur3y+ke38Om8KzaV5rxGYp8xU4EcReQLAYzkC2E+gHA26uBNSNz6/SR6KRGMmTAf+2kje1rwdGm5UKcTBSk8=</t>
+          <t>http://cctvsec.ktict.co.kr/2495/6/e783LJv9rIbEydFTA9LGQMYIIkvsQHWDm1rHbVw+SQLyqrlc+it+EQXSZXHdzb5cZRLtnlaiphL63PyjJAjelJSogk8MEBde7gDNRo6ec=</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>127.4828424</v>
+        <v>127.6265414</v>
       </c>
       <c r="D13" t="n">
-        <v>35.00323479</v>
+        <v>34.9630613</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -780,19 +780,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[남해선] 순천</t>
+          <t>[남해선] 광양터널</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2061/E56BSsj1jhjafCQdjraBNtZxaEWZ3T2KoEhFsMFN+21OGjAIcIPYiZoAo+gL+ICaAP+K/hhoDByNmSs7v6aWgOzmhhUfZab9DKJnPlyndgU=</t>
+          <t>http://cctvsec.ktict.co.kr/2496/gtN6k9lP4EGrGbjMHMXW8ILIFR6vW3d0suB96ZllSKb/UCE0djkDK9we/otwJ0k6icTaDu9BOCbiDqHOm1juKDIxS7iCxKUBD0HzQZGZu80=</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>127.5164295</v>
+        <v>127.6611</v>
       </c>
       <c r="D14" t="n">
-        <v>34.98736526</v>
+        <v>34.96918</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -806,19 +806,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[남해선] 광양</t>
+          <t>[남해선] 하삼교</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2062/sViAXNp2DcX01rfp2xRJ6lTyU5nuKTptc+9hu1ZUJJcxxlfpZGTfUZTB4R79BtVSD5i4VRC40xfwMZTPGmpl3z++4qm6R029RpHXBctFIzc=</t>
+          <t>http://cctvsec.ktict.co.kr/2506/cm8r75PbKkJgBVyO4m8LN3XLvxwz5Mac4gyP3Jb7mPKpZGVIvjbroBGLVE9nhBzrXI7zTinIHxDDrzTYhOyPz+GgCqxWidvVuWgUGw4yp0M=</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>127.60417</v>
+        <v>127.83707</v>
       </c>
       <c r="D15" t="n">
-        <v>34.9725</v>
+        <v>35.005276</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -832,19 +832,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[남해선] 동광양</t>
+          <t>[남해선] 원월철육교</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2063/GEOCqOWCvKJUrFwuBHGZtj5tosRm8txk68G6gEr3SP/y3GgsQp/JvMRNGTjMYMQ6t4oF6WQ6vG9JtGdfxui1DtztLukWni2lK97CMgVpqWk=</t>
+          <t>http://cctvsec.ktict.co.kr/2507/Q0NP7DD87EnuCP9LFwn/PLKc8QaLmvfPAd+zsigK8QuboPLdcncSnJT8sKBcbpNtFPINl6a8pp6xZFsgn1JqFV4rhGMO0xK1rGjKogAaLgo=</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>127.6471</v>
+        <v>127.67867</v>
       </c>
       <c r="D16" t="n">
-        <v>34.96491</v>
+        <v>34.98881</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -858,19 +858,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[남해선] 옥곡</t>
+          <t>[남해선] 수어천교</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2064/RgjEd5vX0jeq/Gml1Z38xksgnvZ384uwpNZVSjs2ZZ3uvllby+TzHerfE3JaaEUS4FGS8KMf0ktbrsBeyy5F82P0Ne2s3b8O3lCdytRA0NY=</t>
+          <t>http://cctvsec.ktict.co.kr/2508/z3JIyPDkEWiOd6S7E4csCWmErwZR3stJiKA7LajavxgW1MwDJjUX6OeMVcj8SNErq29mgVIrFEQeaW53CyxNcphmT4wWamvjM9mZCXUTeKg=</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>127.704631</v>
+        <v>127.721529</v>
       </c>
       <c r="D17" t="n">
-        <v>34.987096</v>
+        <v>34.988536</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -884,19 +884,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[남해선] 진월</t>
+          <t>[남해선] 하동금성</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2065/uhp10bmLAMDfCLkzCvCml3v+Z78NGMgvM0Md5LZNOz37XAOqVjqfmC6S4xcNQltbjm6iUnKVUjv+A1GmX3WyE+bTuIIy30Oh2dz1TFFpJmw=</t>
+          <t>http://cctvsec.ktict.co.kr/2510/yjfyJAfUAdrRJwgtw4C8f83asax7S0XaXxFkceCw5tQjvuc00r0+atDF3/sB2N9+tjASm4T7NE9lE1CKxRNeKW+zGA3U9NfBFqaBnGhnmvc=</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>127.7482084</v>
+        <v>127.7801796</v>
       </c>
       <c r="D18" t="n">
-        <v>34.98016219</v>
+        <v>34.98891823</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -910,19 +910,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[남해선] 섬진강휴게소</t>
+          <t>[남해선] 금당교</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2066/c+i6TOIQd4Ey/dC/qqMbcs1DA8IqtkBM5Ys8Mztw/tau8s8QE5cONIEmhKRaCDo/jxRqDj0CdmsKjNtzpceaAkyT1bIj/HfbgT61wrYZ91w=</t>
+          <t>http://cctvsec.ktict.co.kr/2514/zxj6nqvuemzg/jUDJxc/GalxQI3gvp9ZLyCVWsnNCXMwTbrhVWKIOt3I8Tjd5i4NB0q1cBTdZrOHvG7NVW0WhMCsRpSkQSC/g2LkAdVQf9U=</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>127.77112</v>
+        <v>127.85202</v>
       </c>
       <c r="D19" t="n">
-        <v>34.986133</v>
+        <v>35.0216</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -936,19 +936,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[남해선] 하동</t>
+          <t>[순천완주선] 순천분기점</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2075/KUykelLOGUaIty2043WDnpnXjzgAkhI9KyYUVqXXVQnccqopQSHJIzMj72CeVmzcsk8Uit9cK9HmIoHhpi7BBj15hRDDlt54BhFUj/TYgDo=</t>
+          <t>http://cctvsec.ktict.co.kr/2624/QlxL3B3mUs+qGOq6Uku69S7VnOAmIaIUkDmXzYm6eMGQK74lFslDQc8PZGXJh4GbyzuvBws9Rq47694XQt8Rw9wJxmGlP+yMD5uunDmH7Qs=</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>127.8140637</v>
+        <v>127.537711</v>
       </c>
       <c r="D20" t="n">
-        <v>35.00265681</v>
+        <v>34.990836</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -962,19 +962,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[호남선] 주암</t>
+          <t>[순천완주선] 동순천</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2332/PfCxzKAZGC+x5c0mUfunjxLlTaF+K5p/iSjS4Dyvz2ieFDrAJX80cIJtENWefQZItVq/sv9y9w4LD0RYAMK7SL4BipoI9NEgDgwQM27yYog=</t>
+          <t>http://cctvsec.ktict.co.kr/2625/d4KIxI2dQ/RY+TXTtUfncb27qJwm1R6glCTwTzC5jOtWzmzrUEokTPZCPe/ZRrrlXs7kfBq6SyADwqLE/NTyCy3Lw0m0gLgJY/7awkCPSKE=</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>127.2706522</v>
+        <v>127.552338</v>
       </c>
       <c r="D21" t="n">
-        <v>35.06700702</v>
+        <v>34.949028</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -988,19 +988,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[호남선] 승주</t>
+          <t>[남해선] 동석교</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2333/2KWQoIDwVtcNHyeIU9TVdN1Ns1kEVSjQMbKK/W8FCRpDZuhP/c+nvt3ty8alCQ5gmLt2vfA/VB2iLNbZuMw633m8KworZjTE4c4mOZpDWBs=</t>
+          <t>http://cctvsec.ktict.co.kr/2723/dkV39yclgqLJ6YbWlACIf6i7iOAQD7RBavc9zF/7SXBRk7uiDQLrbGSjFRZK3z2Ycc0VICrQe8S0mNaR8lbiZ6IPLoqBAzOnMkXgrvCx4ik=</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>127.3748123</v>
+        <v>127.56278</v>
       </c>
       <c r="D22" t="n">
-        <v>35.01461894</v>
+        <v>34.98780875</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1014,19 +1014,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[호남선] 순천휴게소</t>
+          <t>[남해선] 압곡</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2334/4CJiSQx4AATcBTu6bYOB2yEtbztbzfIMSPF9lshwchmbctLGRD3L9nQE6K4gOA48fmrkvGpIiUI9j37Ag3AUdd3YMGwju2wPpnUOpRKrcog=</t>
+          <t>http://cctvsec.ktict.co.kr/2765/tsdjJkHNt9yf42GNIROEshMmjsMFKLfAMcsL/tu2IItxuX3P7t0sbGj5ayx7pNDCOXXbDuw3Ey50mS5EszK5m/uJN+sjnGwh/7EGO8X6fr8=</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>127.4407456</v>
+        <v>127.525161743164</v>
       </c>
       <c r="D23" t="n">
-        <v>35.01071031</v>
+        <v>34.989818572998</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1040,19 +1040,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[남해선] 안심교</t>
+          <t>[남해선] 봉강교</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2489/fyzBtsrLh4HOh1IlO5l5dKh/MMPzDx9F3hherhr0TNgdzZX/bSrEepiHuUsNJWUHtdxq4izG8JOO8lQ3O+n2G1X32yZ3q8Jwp5Fca6Navus=</t>
+          <t>http://cctvsec.ktict.co.kr/2766/Hlnyc6lcJl7hbMdjCMHAMOpIY540VFuOOqTm7XsSR+iahxd4Gl5WEZsRM0Bt28uBZe6lrudXSko3vgaXxIkk64UrAewU3Hj4XT6k/wzare4=</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>127.865987</v>
+        <v>127.582092285156</v>
       </c>
       <c r="D24" t="n">
-        <v>35.026993</v>
+        <v>34.9869308471679</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1066,19 +1066,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[남해선] 억만교</t>
+          <t>[남해선] 광양졸음쉼터</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2495/6/e783LJv9rIbEydFTA9LGQMYIIkvsQHWDm1rHbVw+SQLyqrlc+it+EQXSZXHdzbQLbj+QuB3DlIodHCh8wF5S/4c+1hbrcELMtNHKYR80k=</t>
+          <t>http://cctvsec.ktict.co.kr/2767/ZAmEL0iSAj+scU5BQKq5hcVRGGo2UsK0HxeKAziC0O1RzblR1b8G5V8fbYl3Avvlrr2KIDbpynqwIjgqfS0x4iGTcBIRQbOWljPaVQxf6l4=</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>127.6265414</v>
+        <v>127.584266662597</v>
       </c>
       <c r="D25" t="n">
-        <v>34.9630613</v>
+        <v>34.9867973327636</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1092,19 +1092,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[남해선] 광양터널</t>
+          <t>[남해선] 용강2육교</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2496/gtN6k9lP4EGrGbjMHMXW8ILIFR6vW3d0suB96ZllSKb/UCE0djkDK9we/otwJ0k68tiak/WY/taWp9xM7sP+Jlp0zkt+o6XJrp6zcdIwyd8=</t>
+          <t>http://cctvsec.ktict.co.kr/2768/QHK5yh42mqNWqCURwPskMaSqgTHsoHea8y0HpMxSAlKyyZd7sota8l+ssdrcT07ex/0fBgvEUIbRZIz/2txcx2aFU5ISvkdgwLyB2Z2pShE=</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>127.6611</v>
+        <v>127.614143371582</v>
       </c>
       <c r="D26" t="n">
-        <v>34.96918</v>
+        <v>34.9630470275878</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1118,19 +1118,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[남해선] 하삼교</t>
+          <t>[남해선] 망덕</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2506/cm8r75PbKkJgBVyO4m8LN3XLvxwz5Mac4gyP3Jb7mPKpZGVIvjbroBGLVE9nhBzrYswxPMQEUyO/N34zDbC47I7cJzaxZMawU4k6UxQurOI=</t>
+          <t>http://cctvsec.ktict.co.kr/2769/5vgiq0bnzdNMxpDfTAiH6HyMpY9OI8LW1KGzi5tpwyvXALHESccJtfdhb/5OMHZ1eyS9rwYYZ0O0CooYMwNJV3ApRGcwzoU5QlgydkEKBKs=</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>127.83707</v>
+        <v>127.736645</v>
       </c>
       <c r="D27" t="n">
-        <v>35.005276</v>
+        <v>34.980587</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1144,19 +1144,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[남해선] 원월철육교</t>
+          <t>[남해선] 진정천교</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2507/Q0NP7DD87EnuCP9LFwn/PLKc8QaLmvfPAd+zsigK8QuboPLdcncSnJT8sKBcbpNtrJzLNb4PhDzqAjFWGvPauQRu0BqxAjMvDddRAf6vJ6o=</t>
+          <t>http://cctvsec.ktict.co.kr/2770/T3RjLIBZLbr0V0PUGsn0gqjWdxbF/UDO6MHs/AbgGGqAOBhAUOOti5CHB6wZxwVOEQcBoIHB4iCNaOsg/FhOc/NLeO+yE4ESYRrIGl1qsjQ=</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>127.67867</v>
+        <v>127.802261352539</v>
       </c>
       <c r="D28" t="n">
-        <v>34.98881</v>
+        <v>34.9909515380859</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1170,19 +1170,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[남해선] 수어천교</t>
+          <t>[남해선] 성평교</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2508/z3JIyPDkEWiOd6S7E4csCWmErwZR3stJiKA7LajavxgW1MwDJjUX6OeMVcj8SNErvFN94YTKExUXLyCgBMV37dp/S+5uraknPgYLo+dEFbU=</t>
+          <t>http://cctvsec.ktict.co.kr/2771/u3wxf3KdNwOjD3UFm2BBVlFOSd1RjrE0mcD/X8VtP6iYRqt7zXhsvtrQipMkHbAxj9RldcoGy/IqgZXqUtIDHL6jVjopJfRtqkKH20REUQU=</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>127.721529</v>
+        <v>127.843368530273</v>
       </c>
       <c r="D29" t="n">
-        <v>34.988536</v>
+        <v>35.014720916748</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1196,19 +1196,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[남해선] 하동금성</t>
+          <t>[호남선] 학구교</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2510/yjfyJAfUAdrRJwgtw4C8f83asax7S0XaXxFkceCw5tQjvuc00r0+atDF3/sB2N9+zH4x8i4NNpP0uk4y8NwgjcOn73Bhs5xV/iANglMls6Y=</t>
+          <t>http://cctvsec.ktict.co.kr/2863/rnzvahVg0MCNR2/p5LyRqL/3suB83JI/TfRAWEdBWMy6TISGtNRlryOSUdt6yIfdd/WvqzePj9m78A19RjrPk7U1nmtVx949OKIZ3lYCJrI=</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>127.7801796</v>
+        <v>127.359748840332</v>
       </c>
       <c r="D30" t="n">
-        <v>34.98891823</v>
+        <v>35.0179481506347</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1222,19 +1222,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[남해선] 금당교</t>
+          <t>[호남선] 용천교</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2514/zxj6nqvuemzg/jUDJxc/GalxQI3gvp9ZLyCVWsnNCXMwTbrhVWKIOt3I8Tjd5i4NQrcW/WrLWRaeJ5umglkMdmpZXcUcQbT3zkffsd/+DAA=</t>
+          <t>http://cctvsec.ktict.co.kr/2865/4QhkFhqR7QUrkh5K6KP7/407cw5j8hkPizUpgYHib8nniPTbbVMI9hgyZdwYuz4HMRhye7G3aZo5MCmQoXkQaSDPhkHrXzq3o/1cN1xmtZY=</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>127.85202</v>
+        <v>127.274200439453</v>
       </c>
       <c r="D31" t="n">
-        <v>35.0216</v>
+        <v>35.0582122802734</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1248,19 +1248,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[순천완주선] 순천분기점</t>
+          <t>[호남선] 주암휴게소</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2624/QlxL3B3mUs+qGOq6Uku69S7VnOAmIaIUkDmXzYm6eMGQK74lFslDQc8PZGXJh4GbQXK+WPKotQ/KO+Xt5PrepmSF3bKlJqXimzkvCKb+kxo=</t>
+          <t>http://cctvsec.ktict.co.kr/2866/9oam4SGp6WQmXcsgfk/FaJzywe1G6/Xbn3sQcZbdTLKtlNZuYR9v7W3N1wUKs/KVKPXbJgoTUVaLiEa/XaIm04Qbvk/TQl6UhIjqEMjRLUM=</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>127.537711</v>
+        <v>127.26293182373</v>
       </c>
       <c r="D32" t="n">
-        <v>34.990836</v>
+        <v>35.0833587646484</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1274,19 +1274,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[순천완주선] 동순천</t>
+          <t>[순천완주선] 서면교</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2625/d4KIxI2dQ/RY+TXTtUfncb27qJwm1R6glCTwTzC5jOtWzmzrUEokTPZCPe/ZRrrlJypB+qsQpV9gjODw0U12SbCOIC9xMQNN/kLxbJkw9Gg=</t>
+          <t>http://cctvsec.ktict.co.kr/2892/cBKUC6yWzm8HHJGPyMCIQc6W/gfNwwVvx5WGWt/yE0WLtJ/+n1emrxafsbh2SQNE7Z2+ulJWTFPblJKf2gIv88RRzY6T/tIuLdzwaqmDTU4=</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>127.552338</v>
+        <v>127.527015686035</v>
       </c>
       <c r="D33" t="n">
-        <v>34.949028</v>
+        <v>35.000072479248</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -1300,19 +1300,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[남해선] 동석교</t>
+          <t>[남해선] 순천분기점</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2723/dkV39yclgqLJ6YbWlACIf6i7iOAQD7RBavc9zF/7SXBRk7uiDQLrbGSjFRZK3z2Y6/HTmFwQxVK542n9Bfgj9VAvi1wszvKluDnOnOyk8Ig=</t>
+          <t>http://cctvsec.ktict.co.kr/3063/o29AMkOfSpyvW4eZxklUGaokVIddS4wDOKPEAyNwNDk67qAiB0NEaaH2HkoIohNmrlYXfQv6fYoZx8VuNc6xBwche0EqimLjS3afUGSgOHc=</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>127.56278</v>
+        <v>127.5375</v>
       </c>
       <c r="D34" t="n">
-        <v>34.98780875</v>
+        <v>34.99111111</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -1326,19 +1326,19 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[남해선] 압곡</t>
+          <t>[호남선] 두월육교</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2765/tsdjJkHNt9yf42GNIROEshMmjsMFKLfAMcsL/tu2IItxuX3P7t0sbGj5ayx7pNDCdEgHJnTcKRhsqgAGANBtM86wKeeM6JDmf3qYE/6IaPU=</t>
+          <t>http://cctvsec.ktict.co.kr/3474/s1FAEtYrpseOEYIYgjC8NhZ3yikzBu2DWBzi1CwIIGTOxoLyc48+2OSFWHBQSR0NW6GRSpY42Ao6NMP9OYws0+ItMU1YigU4hTjeE58qWYE=</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>127.525161743164</v>
+        <v>127.3222386</v>
       </c>
       <c r="D35" t="n">
-        <v>34.989818572998</v>
+        <v>35.0282477</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1352,19 +1352,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[남해선] 봉강교</t>
+          <t>[남해선] 해룡교</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2766/Hlnyc6lcJl7hbMdjCMHAMOpIY540VFuOOqTm7XsSR+iahxd4Gl5WEZsRM0Bt28uBOAu81LHtmXHRfEZzWnALbSKfWjRqeYvUtjT64/iqmIo=</t>
+          <t>http://cctvsec.ktict.co.kr/8040//Lw8VVQ9W5XqiBL19pJlOp9PnPubwu6Zl14fgGhV7IJhk3Ge+w7eA2W3CJOLUvZq/v2hmgPMdn7fj0EyirEdb4YA+Hh+/HyxkTNKWjIP7Hc=</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>127.582092285156</v>
+        <v>127.519024</v>
       </c>
       <c r="D36" t="n">
-        <v>34.9869308471679</v>
+        <v>34.9014849</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1378,19 +1378,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[남해선] 광양졸음쉼터</t>
+          <t>[호남선] 신전2교</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2767/ZAmEL0iSAj+scU5BQKq5hcVRGGo2UsK0HxeKAziC0O1RzblR1b8G5V8fbYl3AvvlBOusO38z/abUrVslAPiZtmdXdmC2GXAWDVifukqHpO4=</t>
+          <t>http://cctvsec.ktict.co.kr/8080/+LtMMx8+Mh3obSBaj7L+IL80Po4CNS03/bLuASNYivDm1iYzftMv7T+l6HQfPw9A4MOpGpCOUrMjJffNuhOB7JmYejQ2XTQrW/J4sAOPZEE=</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>127.584266662597</v>
+        <v>127.344052</v>
       </c>
       <c r="D37" t="n">
-        <v>34.9867973327636</v>
+        <v>35.023415</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -1404,19 +1404,19 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[남해선] 용강2육교</t>
+          <t>[호남선] 월산교</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2768/QHK5yh42mqNWqCURwPskMaSqgTHsoHea8y0HpMxSAlKyyZd7sota8l+ssdrcT07eXgMPNrkb2kCHWqgSrsMuAX8+5iGqU9zSsWOETymtMvQ=</t>
+          <t>http://cctvsec.ktict.co.kr/8081/lnU1xcleyIiO3S0OfwBZJ5t8j/nXxYKI3/WLAHM2rNbJO9VjqVINA/Eol5bnxM7ysI6cDE5zD5zyuwFCJfDWwtDAZyxSZWjsRNvwPWm/6OE=</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>127.614143371582</v>
+        <v>127.4615595</v>
       </c>
       <c r="D38" t="n">
-        <v>34.9630470275878</v>
+        <v>35.0052997</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1430,19 +1430,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[남해선] 망덕</t>
+          <t>[남해선] 선평교</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2769/5vgiq0bnzdNMxpDfTAiH6HyMpY9OI8LW1KGzi5tpwyvXALHESccJtfdhb/5OMHZ1Z4eyHwCYJ68TdADij/NVnZrQ9+g2tYTn334SVkysJ6c=</t>
+          <t>http://cctvsec.ktict.co.kr/8162/0uXzN6JhY2s+KQhu5GsF4To7eaYuJuSoHQbKspQm+mzEZTJK0FZBE3cpH2HVAtVNcVoU6d0Vt4eGg17vSzCM7g/p3Pd7itcHuHRPOmXCR/4=</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>127.736645</v>
+        <v>127.497864</v>
       </c>
       <c r="D39" t="n">
-        <v>34.980587</v>
+        <v>34.992033</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1456,19 +1456,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[남해선] 진정천교</t>
+          <t>[남해선] 해룡터널순천외부1/2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2770/T3RjLIBZLbr0V0PUGsn0gqjWdxbF/UDO6MHs/AbgGGqAOBhAUOOti5CHB6wZxwVODBsTfUzlzrZbsqgFAqLeZ0TyDF5vlhYphcA4YXznelI=</t>
+          <t>http://cctvsec.ktict.co.kr/8205/ZVd2Kfm+I0dyZJq5/pCFT09lKJ2KKoML2NdowUw7YwPnMA9ALA9FbvaBEQFF6nxKi+YWCeyTscm4VEVsETRXIXFlwNP2Xq/LfX2iFWWrRsg=</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>127.802261352539</v>
+        <v>127.52931</v>
       </c>
       <c r="D40" t="n">
-        <v>34.9909515380859</v>
+        <v>34.90449</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1482,19 +1482,19 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[남해선] 성평교</t>
+          <t>[남해선] 해룡터널영암외부</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2771/u3wxf3KdNwOjD3UFm2BBVlFOSd1RjrE0mcD/X8VtP6iYRqt7zXhsvtrQipMkHbAxBFXvGeu+MV+RJXRloYUKUpGfjR3mqJXBUkMlsg5p2Fo=</t>
+          <t>http://cctvsec.ktict.co.kr/8206/oWKy0KhsRjv3OFemxvJOcQhldgiPgM3kipIKXgM482t59/kOOEi6Tu2YI0/3MSE9HPfywipZgr2k/RxLQ4a+XlAA46V2/3hwKl3iVh9MSPs=</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>127.843368530273</v>
+        <v>127.54434</v>
       </c>
       <c r="D41" t="n">
-        <v>35.014720916748</v>
+        <v>34.91293</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -1508,19 +1508,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[호남선] 학구교</t>
+          <t>[순천완주선] 태방터널순천외부#1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2863/rnzvahVg0MCNR2/p5LyRqL/3suB83JI/TfRAWEdBWMy6TISGtNRlryOSUdt6yIfd/2UjOPJmJHjmHT4il/Q4HD88L/fw65NFKc7Kmj1vseg=</t>
+          <t>http://cctvsec.ktict.co.kr/8243/Y6/myJIi+ilOKue8xz1TXyrYeizx8hDeXOYJljlAph+Iv03xn5H9UjayXNH1Tc229aAF8gqBqGtXEXRiDoZJDNNhtlgq5ZXC9QRGdBMS9oc=</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>127.359748840332</v>
+        <v>127.546521</v>
       </c>
       <c r="D42" t="n">
-        <v>35.0179481506347</v>
+        <v>34.982088</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1534,19 +1534,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[호남선] 접치</t>
+          <t>[순천완주선] 서면1터널완주외부#1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2864/tqRVnaDlgoL0wf0FjAjpgCkMRq/TeIPadaV4xlspSzIg7RbA6BSkEcuSnzzfOj1GiK8W3mdIpGhBEBqz3glwdtAjTII/AU+bN3a+2l6IQg4=</t>
+          <t>http://cctvsec.ktict.co.kr/8244/gFGUBG3KyUUjsTS4n07bOO60Y1W1Ck2od0eggcF9Ir7hiyJj2r1SCWigpDMno5ru9MnvCNbgX0Hg/vRHqg6E7v8U2UCLntjkPSbotI5m/CQ=</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>127.29702758789</v>
+        <v>127.52262</v>
       </c>
       <c r="D43" t="n">
-        <v>35.0363845825195</v>
+        <v>35.00612</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -1560,19 +1560,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[호남선] 용천교</t>
+          <t>[순천완주선] 서면1터널순천#5</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2865/4QhkFhqR7QUrkh5K6KP7/407cw5j8hkPizUpgYHib8nniPTbbVMI9hgyZdwYuz4Hji5aTvTSkexz+CL2WR3lhrpu/H32kEsHXg5kYto+ZFE=</t>
+          <t>http://cctvsec.ktict.co.kr/8245/MVQSHzSoHk0M1p+Nge/CvIhYGaIUipYlUl2kjVb+UVuBHuLb3hS6ITBYEQjKHp2Aeh3Xih8xaPK6NaHz0zKg5LAiE9MaT6gZQb2W69yw4Fs=</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>127.274200439453</v>
+        <v>127.516185</v>
       </c>
       <c r="D44" t="n">
-        <v>35.0582122802734</v>
+        <v>35.016018</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -1586,19 +1586,19 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[호남선] 주암휴게소</t>
+          <t>[순천완주선] 서면1터널완주#5</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2866/9oam4SGp6WQmXcsgfk/FaJzywe1G6/Xbn3sQcZbdTLKtlNZuYR9v7W3N1wUKs/KVgn4l/zv6IlqvC8Be2wcWCnCZE2Y5DEVIp9UWa5WKsTI=</t>
+          <t>http://cctvsec.ktict.co.kr/8246/LsSv/vLKa8rDE44b6NTI9RbPZEWOABxs7Dn5rBCLeDg9salGjGQwFbhuFWBKfmEF9ccUxtf4FifYf6nRJG6f7doz37hAObc7TyOi3V2tYQk=</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>127.26293182373</v>
+        <v>127.518041</v>
       </c>
       <c r="D45" t="n">
-        <v>35.0833587646484</v>
+        <v>35.013742</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -1612,19 +1612,19 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[순천완주선] 서면교</t>
+          <t>[순천완주선] 서면1터널순천외부#1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/2892/cBKUC6yWzm8HHJGPyMCIQc6W/gfNwwVvx5WGWt/yE0WLtJ/+n1emrxafsbh2SQNE6IGKK2vBHfMpssuM5wyHT9HAgp3l38yFJ4lTgTbqlG4=</t>
+          <t>http://cctvsec.ktict.co.kr/8247/Ly85DX32WwWBxAcmYFv0xRV2zJCc+/APBZFS0mW7kBze9HQKVy72Dm7ffmUjsRfNlHC9qCqcYyYiEMhuzrS6se2+iFk/r3ziPkvwGNpZtR0=</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>127.527015686035</v>
+        <v>127.5103</v>
       </c>
       <c r="D46" t="n">
-        <v>35.000072479248</v>
+        <v>35.02361</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -1638,19 +1638,19 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[남해선] 순천분기점</t>
+          <t>[순천완주선] 서면5터널완주#5</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/3063/o29AMkOfSpyvW4eZxklUGaokVIddS4wDOKPEAyNwNDk67qAiB0NEaaH2HkoIohNmZJf5jVa78SkE+IAaSn5uBP5PHF39gb0S/aEKDD7fZ/w=</t>
+          <t>http://cctvsec.ktict.co.kr/8248/8swF/PWWHd4+D8aX3m7YfcIos0tC1P9bRZZKkmCqvVDitzh5aiolN2FdstPK0ntJQwojYC0mXqx809gjc5oHw8gFn/wLmQRuP+A2tqf5r34=</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>127.5375</v>
+        <v>127.48991</v>
       </c>
       <c r="D47" t="n">
-        <v>34.99111111</v>
+        <v>35.06656</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -1664,19 +1664,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[호남선] 두월육교</t>
+          <t>[순천완주선] 서면5터널순천#5</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/3474/s1FAEtYrpseOEYIYgjC8NhZ3yikzBu2DWBzi1CwIIGTOxoLyc48+2OSFWHBQSR0NRT4DayOzplwQPdimMpbMn5yUQ3yAXNPRa+4VBXb9AZ0=</t>
+          <t>http://cctvsec.ktict.co.kr/8249/2Fd+O87japlEHxaCZCxn+th9tPfnwKjVVx7JsKLGhFoNxC5tBpXHm4GVWj+rq9B1KicmH8ADPWymcY4Axn7C5MgEB4mf7csmtcQCwMyTk7k=</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>127.3222386</v>
+        <v>127.4905</v>
       </c>
       <c r="D48" t="n">
-        <v>35.0282477</v>
+        <v>35.06629</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -1690,19 +1690,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[남해선] 용강1육교</t>
+          <t>[호남선] 쌍암천교</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/3915/octBr7VGzGWOclaVheiZHzVvFeUQfEf9q/5zoaELsZBF4EKs9Yspmp5dwIVeB8/MCLGVAdqlI8iPOeRC312GYyOOwao463S0djQQlad3EBg=</t>
+          <t>http://cctvsec.ktict.co.kr/8405/NdL4qJS7FMdFNHe+pxjbtPlW93w/Dzu488p6AplHoC55SNd5Z9UKcGAolhyT+ZCL4OMD5JMujdnEFJTibIMr76LJsXaZKBirn7J52oszFTs=</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>127.606903076171</v>
+        <v>127.4114823</v>
       </c>
       <c r="D49" t="n">
-        <v>34.9697456359863</v>
+        <v>35.0120817</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -1716,19 +1716,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[남해선] 선유</t>
+          <t>[호남선] 행정교</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/3916/XbNGT4l3bRhjlRjzrSso1XpaVl1zR3Fn/Hq5uHcxZPAE8e1gtPF2+yOQzVicCSTnN/vFlN+Osw4j88033SRZZFXHc5J6QrgAT/Q+KA0h7sg=</t>
+          <t>http://cctvsec.ktict.co.kr/8407/SFGMOtbcA+K7h66HTSxdd2Jc0Ab9x2EXkmQ8vyL9zmiMin05t+6+EMEj2DEHnRDs+/WMIwg4HL53B9bBy0Jq2Ps8SKS0YHYWXfk6Sdb3TZw=</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>127.66421508789</v>
+        <v>127.2892622</v>
       </c>
       <c r="D50" t="n">
-        <v>34.9745254516601</v>
+        <v>35.043117</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -1742,19 +1742,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[남해선] 해룡교</t>
+          <t>[호남선] 보성강교</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8040//Lw8VVQ9W5XqiBL19pJlOp9PnPubwu6Zl14fgGhV7IJhk3Ge+w7eA2W3CJOLUvZqRrJQjV1J+le5pP0qHauELcAtVejU3FXk3mIdNDGVNtM=</t>
+          <t>http://cctvsec.ktict.co.kr/8408/pe5/8/Ck+fu05isrGazrpz98uJsiNZkuCOrTLL2PAR3gaV6giwndBIJjA9TI0eZFeQPtrcvDsR9tfwJEaom4jnu/xrW2fdX5nBN9cyROFi4=</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>127.519024</v>
+        <v>127.258793</v>
       </c>
       <c r="D51" t="n">
-        <v>34.9014849</v>
+        <v>35.090672</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -1768,19 +1768,19 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[호남선] 신전2교</t>
+          <t>[남해선] 하선교</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8080/+LtMMx8+Mh3obSBaj7L+IL80Po4CNS03/bLuASNYivDm1iYzftMv7T+l6HQfPw9AkZOmLg54mdkHGRYWuBvI0m3gZVfvqCiLzULtBIg3sFo=</t>
+          <t>http://cctvsec.ktict.co.kr/8488/K9eD7G7XvtWF3Og73x4QKEYhaGOzMmVL5eoOLNOmLWkzFewkv2UfZ187xzkufkonjNf3G0jW8HO7dJ+Ztkjd9EUYraHLGGTiA0n8PyXwsZM=</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>127.344052</v>
+        <v>127.66892</v>
       </c>
       <c r="D52" t="n">
-        <v>35.023415</v>
+        <v>34.976691</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -1794,19 +1794,19 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[호남선] 월산교</t>
+          <t>[남해선] 도롱교차로</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8081/lnU1xcleyIiO3S0OfwBZJ5t8j/nXxYKI3/WLAHM2rNbJO9VjqVINA/Eol5bnxM7yPUw0m98eFXZ0Xso4WMgCSXdApMav+6ONYKDb+3OFWDE=</t>
+          <t>http://cctvsec.ktict.co.kr/8490/hLFlIjI1sgeb/jX0Ekbzy2LryonsUFTg9sWrOpQ0M2Kz1gd4HB9oirgaqIEz73VyXN0xbAdG51q4qEyd8rJIxVUWyRXlEEWw80Rg6NH9u0I=</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>127.4615595</v>
+        <v>127.529387</v>
       </c>
       <c r="D53" t="n">
-        <v>35.0052997</v>
+        <v>34.904569</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -1820,19 +1820,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[남해선] 선평교</t>
+          <t>[순천완주선] [완주]서면2터널(완주외부1)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8162/0uXzN6JhY2s+KQhu5GsF4To7eaYuJuSoHQbKspQm+mzEZTJK0FZBE3cpH2HVAtVNz6Yh8T8Cd9KUjyb3/qhK4iFQQttMXlzb4xoYZ8gPanc=</t>
+          <t>http://cctvsec.ktict.co.kr/8526/P/kBxLsy1iBU1xck1/Sham8om/LN5AlVKeBTDJxT4xMOmFw8WdFo+WMNeOOwHRoD9ryD8UL9qI8+mFvhyctEe/y0HTrV0M31bZvrBYs4LSg=</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>127.497864</v>
+        <v>127.507041</v>
       </c>
       <c r="D54" t="n">
-        <v>34.992033</v>
+        <v>35.029083</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -1846,19 +1846,19 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[남해선] 해룡터널순천외부1/2</t>
+          <t>[순천완주선] [순천]서면2터널(순천외부1)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8205/ZVd2Kfm+I0dyZJq5/pCFT09lKJ2KKoML2NdowUw7YwPnMA9ALA9FbvaBEQFF6nxKLrCt7aqUDVmsCZKJlsY8zncHqmOX6uaL4ZluHTYkK+I=</t>
+          <t>http://cctvsec.ktict.co.kr/8527/SS4gq1y38yDm96/7bx8zVnzdJSHSh32rMm/d5NDiSiPYScpIT9p21QK26VwibvMNNF0bxhmg0B2N5MxfuQwsr5AfL+4bYejH9fEcpoKIRds=</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>127.52931</v>
+        <v>127.503201</v>
       </c>
       <c r="D55" t="n">
-        <v>34.90449</v>
+        <v>35.045482</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -1872,19 +1872,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[남해선] 해룡터널영암외부</t>
+          <t>[순천완주선] [완주]서면3터널(완주외부1)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8206/oWKy0KhsRjv3OFemxvJOcQhldgiPgM3kipIKXgM482t59/kOOEi6Tu2YI0/3MSE9X7PZRgY1wOcyIBjoHR3OLqKecNq7bnzWkthrqWIvGco=</t>
+          <t>http://cctvsec.ktict.co.kr/8528/PGrm1e1stXovF4rL2UAyQCkPBUtXPso2sMe3cUrBhQKx9Tp9Qtjc2Do9XRZW1CCAPf+waxSWh5VREKow4pkN1E5H/gEp0InCoPkxOQ3vIzs=</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>127.54434</v>
+        <v>127.501849</v>
       </c>
       <c r="D56" t="n">
-        <v>34.91293</v>
+        <v>35.048419</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -1898,19 +1898,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[순천완주선] 태방터널순천외부#1</t>
+          <t>[순천완주선] [순천]서면4터널(순천외부1)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8243/Y6/myJIi+ilOKue8xz1TXyrYeizx8hDeXOYJljlAph+Iv03xn5H9UjayXNH1Tc22+v6ffSsyJ17LvNGwLwyGvvRSh5IjgTPzM88bQ92tkYw=</t>
+          <t>http://cctvsec.ktict.co.kr/8529/0bpepcLK3vuXNnZtKgYUyFfTXHzKCJvEWlozG1mCQ8wydyDtm9IyG4oggLakXJ/S9weOIaHyY7ttjaoz235lIQVRZkzN+0XGUPhRi3u1L2Y=</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>127.546521</v>
+        <v>127.500113</v>
       </c>
       <c r="D57" t="n">
-        <v>34.982088</v>
+        <v>35.055637</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -1924,19 +1924,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[순천완주선] 서면1터널완주외부#1</t>
+          <t>[순천완주선] [완주]서면5터널(완주외부1)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8244/gFGUBG3KyUUjsTS4n07bOO60Y1W1Ck2od0eggcF9Ir7hiyJj2r1SCWigpDMno5ruDBOmuzf+7XxFDi5J+mOujAjWE6LdDDk/RRrHIZ4401o=</t>
+          <t>http://cctvsec.ktict.co.kr/8530/HGtcFUA5F0GZd8kvTEU8EhPWHsNk0oEGmYYOA0k/8EpM6wQxj8TKV7w0LDqtOu0NFUWg5JrsjgACyyWsXfo7xp+qeNkjtQy2BTgb99JREo8=</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>127.52262</v>
+        <v>127.498562</v>
       </c>
       <c r="D58" t="n">
-        <v>35.00612</v>
+        <v>35.059892</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -1950,19 +1950,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[순천완주선] 서면1터널순천#5</t>
+          <t>[순천완주선] [순천]서면5터널(순천외부1)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8245/MVQSHzSoHk0M1p+Nge/CvIhYGaIUipYlUl2kjVb+UVuBHuLb3hS6ITBYEQjKHp2A6T6FMHNPJ+KyiQuErt3CrOdLGmihSPbQZTmf5Ta3zI8=</t>
+          <t>http://cctvsec.ktict.co.kr/8531/JKVs+CX3GF7yBLv119rUqpKubJxZ40XMf9RzlkNW2Y2y4TnbYB9dCSSiGgPuucu3MjcvZjjy09o9sK8oUvoKZR7xJqtk9ZlsGEvDV+pQ0oE=</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>127.516185</v>
+        <v>127.479727</v>
       </c>
       <c r="D59" t="n">
-        <v>35.016018</v>
+        <v>35.078818</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -1976,19 +1976,19 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[순천완주선] 서면1터널완주#5</t>
+          <t>[순천완주선] [완주]황전1터널(완주외부1)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8246/LsSv/vLKa8rDE44b6NTI9RbPZEWOABxs7Dn5rBCLeDg9salGjGQwFbhuFWBKfmEFGrSF5pDDy17JdrKup9dnXPAPz2DqbFfVIFO9QBZ6mQk=</t>
+          <t>http://cctvsec.ktict.co.kr/8532/vrIgdFrzIBVy9Nn3AEcHlpe/2AUGtQmXRdSadh5BfTpZhWgPstInaeQlAUck4sqU/+S4qe6flxf9y2GIKbjy5QKWbgWfIi0YoJe2MutaPM4=</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>127.518041</v>
+        <v>127.477955</v>
       </c>
       <c r="D60" t="n">
-        <v>35.013742</v>
+        <v>35.084508</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -2002,19 +2002,19 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[순천완주선] 서면1터널순천외부#1</t>
+          <t>[남해선] [순천]하동터널(순천1 1)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8247/Ly85DX32WwWBxAcmYFv0xRV2zJCc+/APBZFS0mW7kBze9HQKVy72Dm7ffmUjsRfNWurAj0/I37zUweMSgWL/7sVoEsHsiDmQht2ncglnQYY=</t>
+          <t>http://cctvsec.ktict.co.kr/8553/3gY6qH/KaOorV5ZqhMHifFEMjiIFV0vyETNEetp/0ZHd2QEtgzQa9Rmg+xaT/mOryLGwF8ExbrYgImjvTpcc1mH2sszxRw9dRE8WGDKjXUc=</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>127.5103</v>
+        <v>127.796461</v>
       </c>
       <c r="D61" t="n">
-        <v>35.02361</v>
+        <v>34.989252</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -2028,19 +2028,19 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[순천완주선] 서면5터널완주#5</t>
+          <t>[남해선] [부산]하동터널(부산1 1)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8248/8swF/PWWHd4+D8aX3m7YfcIos0tC1P9bRZZKkmCqvVDitzh5aiolN2FdstPK0ntJp/dJgheT+VzeptH2MsK+pA26pjnl0ZeF5QMUnjgUg/A=</t>
+          <t>http://cctvsec.ktict.co.kr/8554/j1mv+FYKn+SdsZrBObfChAMGBeakzQp0WN2dQkapTTg0TPpoZkFi80mZikLrjEPoH1jdlyQ7DuB0t7ba90OWMHaBtmyid9MpFIqWx/s116c=</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>127.48991</v>
+        <v>127.794733</v>
       </c>
       <c r="D62" t="n">
-        <v>35.06656</v>
+        <v>34.989059</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -2054,19 +2054,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[순천완주선] 서면5터널순천#5</t>
+          <t>[남해선] 죽림</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8249/2Fd+O87japlEHxaCZCxn+th9tPfnwKjVVx7JsKLGhFoNxC5tBpXHm4GVWj+rq9B1T/tT2Xrw67uUTBV6JA9jladsB89WI7Ct5eF2ANkoRbw=</t>
+          <t>http://cctvsec.ktict.co.kr/94825/eYbgyOsK7cQb2E+ZxqZ0g7XB0ixKu1FzhFGzjdFJolh8Wc1r0PBN8VEQYmNZ3vKc7Jv7p7Ltww54VgwuMXST02UaB7xfLLpZj1G/5+rfJEs=</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>127.4905</v>
+        <v>127.650485</v>
       </c>
       <c r="D63" t="n">
-        <v>35.06629</v>
+        <v>34.963449</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -2080,19 +2080,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>[호남선] 쌍암천교</t>
+          <t>[남해선] 지곡</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8405/NdL4qJS7FMdFNHe+pxjbtPlW93w/Dzu488p6AplHoC55SNd5Z9UKcGAolhyT+ZCLfAVF1Cfwf/TEYIbZQ2GFaFIwV9LgeBgKolNDcZH0pks=</t>
+          <t>http://cctvsec.ktict.co.kr/95180/m4Sm8CVHCrdVp6tzkUl0Xop2DUKwupzycqFqT8KnUAMt8GCpYbsTM4wYgjMdDOnaCEACvnMcLnrjEcHZ1O2sS/C/kAcoY5Uq6wcKELPg7XI=</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>127.4114823</v>
+        <v>127.57554</v>
       </c>
       <c r="D64" t="n">
-        <v>35.0120817</v>
+        <v>34.986498</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
@@ -2106,19 +2106,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[호남선] 순천1터널</t>
+          <t>[호남선] 봉덕</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8406/gqLmzWE9GXVGJQIV2EQfJepR2w8/AAkuq/ogzuVmLa0metx81Ub0NBqNEIfDNkiuCl1MoEuJpl0oi5uxVgd9lvGuT/Xi8SMcHwG2+cil8UU=</t>
+          <t>http://cctvsec.ktict.co.kr/95185/dBWLVXdj4vazxgNuKfCuijTNXYh3d5pAozYTgBZVZijSY14E+FzHWfhFUTGtSWNseYK8z06OHGHE3rprTwcOHcMIaWizwegMVpwNY4EKwOg=</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>127.309035</v>
+        <v>127.35079</v>
       </c>
       <c r="D65" t="n">
-        <v>35.031282</v>
+        <v>35.022074</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
@@ -2132,492 +2132,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[호남선] 행정교</t>
+          <t>[호남선] 신기</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://cctvsec.ktict.co.kr/8407/SFGMOtbcA+K7h66HTSxdd2Jc0Ab9x2EXkmQ8vyL9zmiMin05t+6+EMEj2DEHnRDshlPsJMriShH3BdTxKV9sk7UhWeXE8BE2jTCRYgFSC0o=</t>
+          <t>http://cctvsec.ktict.co.kr/95186/+BgPG7JdQRQGCo5XnR/KtQgbfOdLSl0iiY+zeDYDFyLxL81vOFDDYAoMk0NE71Xbmp+Ms81p+FQEYrmgoR2liAvuQpLdqWBw0YExffJfkjg=</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>127.2892622</v>
+        <v>127.26279</v>
       </c>
       <c r="D66" t="n">
-        <v>35.043117</v>
+        <v>35.084213</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
       <c r="F66" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>[호남선] 보성강교</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/8408/pe5/8/Ck+fu05isrGazrpz98uJsiNZkuCOrTLL2PAR3gaV6giwndBIJjA9TI0eZFTQS3zIWiaB3wbwIb7p8sawZjn6jMNURFjADwnGIJEMY=</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>127.258793</v>
-      </c>
-      <c r="D67" t="n">
-        <v>35.090672</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>[남해선] 하선교</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/8488/K9eD7G7XvtWF3Og73x4QKEYhaGOzMmVL5eoOLNOmLWkzFewkv2UfZ187xzkufkonc+aHui7lYFGgIMdQqKUboTuddym8592QvXKW2y0jstU=</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>127.66892</v>
-      </c>
-      <c r="D68" t="n">
-        <v>34.976691</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>[남해선] 도롱교차로</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/8490/hLFlIjI1sgeb/jX0Ekbzy2LryonsUFTg9sWrOpQ0M2Kz1gd4HB9oirgaqIEz73VyQFQ8NyAS4yzEv2YgV118BTXjz5yxiJ1O3Zcljp3ACi8=</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>127.529387</v>
-      </c>
-      <c r="D69" t="n">
-        <v>34.904569</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>[순천완주선] [완주]서면2터널(완주외부1)</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/8526/P/kBxLsy1iBU1xck1/Sham8om/LN5AlVKeBTDJxT4xMOmFw8WdFo+WMNeOOwHRoD60yspphkDmV7u2H2nD++bVShnvTG5r9lkyjCsYZubUg=</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>127.507041</v>
-      </c>
-      <c r="D70" t="n">
-        <v>35.029083</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>[순천완주선] [순천]서면2터널(순천외부1)</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/8527/SS4gq1y38yDm96/7bx8zVnzdJSHSh32rMm/d5NDiSiPYScpIT9p21QK26VwibvMNIGk9H84xWOVJCs11tUaAfIZ+F3HJoGgdB+1LeUan5yY=</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>127.503201</v>
-      </c>
-      <c r="D71" t="n">
-        <v>35.045482</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>[순천완주선] [완주]서면3터널(완주외부1)</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/8528/PGrm1e1stXovF4rL2UAyQCkPBUtXPso2sMe3cUrBhQKx9Tp9Qtjc2Do9XRZW1CCAQmKtVauSNHXyZr2KzOAFkMH0AktGROWfOE/7n5g3/4w=</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>127.501849</v>
-      </c>
-      <c r="D72" t="n">
-        <v>35.048419</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>[순천완주선] [순천]서면4터널(순천외부1)</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/8529/0bpepcLK3vuXNnZtKgYUyFfTXHzKCJvEWlozG1mCQ8wydyDtm9IyG4oggLakXJ/S4UMACkUe/ePycyERsaLIjxUwNA3aIgH2t/3M03fFrAo=</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>127.500113</v>
-      </c>
-      <c r="D73" t="n">
-        <v>35.055637</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>[순천완주선] [완주]서면5터널(완주외부1)</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/8530/HGtcFUA5F0GZd8kvTEU8EhPWHsNk0oEGmYYOA0k/8EpM6wQxj8TKV7w0LDqtOu0NenfTrvHTgHlQZT2/SZ3dPRGVxzkyrUDKMD7RzC4PNZ8=</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>127.498562</v>
-      </c>
-      <c r="D74" t="n">
-        <v>35.059892</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>[순천완주선] [순천]서면5터널(순천외부1)</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/8531/JKVs+CX3GF7yBLv119rUqpKubJxZ40XMf9RzlkNW2Y2y4TnbYB9dCSSiGgPuucu3RbdSWT4ko+H//X4E720wwCMS3KB2ZF2FFOujMxLxqeU=</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>127.479727</v>
-      </c>
-      <c r="D75" t="n">
-        <v>35.078818</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>[순천완주선] [완주]황전1터널(완주외부1)</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/8532/vrIgdFrzIBVy9Nn3AEcHlpe/2AUGtQmXRdSadh5BfTpZhWgPstInaeQlAUck4sqU+/NPJ5yc5oG/cHw+IA/ZLndW6KSGBULg406vMUUBA5U=</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>127.477955</v>
-      </c>
-      <c r="D76" t="n">
-        <v>35.084508</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>[남해선] [순천]하동터널(순천1 1)</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/8553/3gY6qH/KaOorV5ZqhMHifFEMjiIFV0vyETNEetp/0ZHd2QEtgzQa9Rmg+xaT/mOrx1T1AXiXRvIF4Kh3ASb+q3/Ke+F4TAE2g7A6hk4VzVU=</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>127.796461</v>
-      </c>
-      <c r="D77" t="n">
-        <v>34.989252</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>[남해선] [부산]하동터널(부산1 1)</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/8554/j1mv+FYKn+SdsZrBObfChAMGBeakzQp0WN2dQkapTTg0TPpoZkFi80mZikLrjEPozTPnE3GGXMVCWA6qL3UjSWxMl6eMe94mld54BN3ENN8=</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>127.794733</v>
-      </c>
-      <c r="D78" t="n">
-        <v>34.989059</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>[남해선] 죽림</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/94825/eYbgyOsK7cQb2E+ZxqZ0g7XB0ixKu1FzhFGzjdFJolh8Wc1r0PBN8VEQYmNZ3vKc8QR0BwIJv4ic5n2yIff0Fv/b5KzSbjN3HN+WqfqEWfU=</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>127.650485</v>
-      </c>
-      <c r="D79" t="n">
-        <v>34.963449</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>[호남선] 비월</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/94838/HppZVn7gxnCsrQYMG+9eKMEda62Jwln7B0eNUwhvqXXDXimNWxihsuGGQrhQxe43tfiht6dejhy3yFXdEpaguxNcWC10lvCxKy5GtSnwtSQ=</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>127.435974</v>
-      </c>
-      <c r="D80" t="n">
-        <v>35.011734</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>[호남선] 복다</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/94839/9JdUjC38Z2CjiwUUa92ktZ9RA0qW84LiCkYIHG2WR9G/9siz2AnCLYYUFUFXzmt/+ICm/UyCkFFaPU9XyawpKs/P6LV4emNJSDhk706W6+s=</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>127.279812</v>
-      </c>
-      <c r="D81" t="n">
-        <v>35.053879</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>[남해선] 지곡</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/95180/m4Sm8CVHCrdVp6tzkUl0Xop2DUKwupzycqFqT8KnUAMt8GCpYbsTM4wYgjMdDOna21oJJhZ41dLO2yYMEQ5bidNMnW5gVd7AdhZQ1aVG8kE=</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>127.57554</v>
-      </c>
-      <c r="D82" t="n">
-        <v>34.986498</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>[호남선] 봉덕</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/95185/dBWLVXdj4vazxgNuKfCuijTNXYh3d5pAozYTgBZVZijSY14E+FzHWfhFUTGtSWNs+JJLqjs7FWUQDdI9/hqD92raOEj6xTZWcL7rjQ9v/q0=</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>127.35079</v>
-      </c>
-      <c r="D83" t="n">
-        <v>35.022074</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>HLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>[호남선] 신기</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>http://cctvsec.ktict.co.kr/95186/+BgPG7JdQRQGCo5XnR/KtQgbfOdLSl0iiY+zeDYDFyLxL81vOFDDYAoMk0NE71XbdQyp81BNV7R4BGE0V5VObL1FcEhgMs4T5gzH4ERxasU=</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>127.26279</v>
-      </c>
-      <c r="D84" t="n">
-        <v>35.084213</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1</v>
-      </c>
-      <c r="F84" t="inlineStr">
         <is>
           <t>HLS</t>
         </is>
